--- a/Iram/Login_SignIn_Excel_Connect/Sign Up.xlsx
+++ b/Iram/Login_SignIn_Excel_Connect/Sign Up.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -535,6 +535,134 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iram</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>hello.moto@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9967268750</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>iram</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>iram.shaikh</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2005-03-03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9967268750</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>iram</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>iram.shaikh</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2005-03-03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9967268750</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>iram</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>iram.shaikh</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2005-03-03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Iram/Login_SignIn_Excel_Connect/Sign Up.xlsx
+++ b/Iram/Login_SignIn_Excel_Connect/Sign Up.xlsx
@@ -423,20 +423,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="15.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="15.77734375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="11" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,219 +445,61 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Email ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Password</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Confirm Password</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Number</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IRAM.SHAIKH</t>
+          <t>iram.shaikh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FEWUIUFH4HE</t>
+          <t>1234567890</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FEWUIUFH4HE</t>
+          <t>qwertyuio</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>IRAM.DH3IHRO32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-02-01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4578965412</t>
+          <t>asdfghjk</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Iram</t>
+          <t>iram.shaikh00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Iram12345</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Iram12345</t>
+          <t>IRAMWNFH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>iramimranshaikh@gmail.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-02-01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9967268750</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Iram</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>qwerty</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>qwerty</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>hello.moto@gmail.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-02-01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9967268750</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>iram</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>qwerty</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>qwerty</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>iram.shaikh</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2005-03-03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9967268750</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>iram</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>qwerty</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>qwerty</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>iram.shaikh</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2005-03-03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9967268750</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>iram</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>qwerty</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>qwerty</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>iram.shaikh</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2005-03-03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>123456789</t>
+          <t>hhdfoiwjfpj</t>
         </is>
       </c>
     </row>
